--- a/Data-Driven/system.xlsx
+++ b/Data-Driven/system.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,27 +30,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请您填写手机/邮箱/用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请您填写密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入验证码</t>
+    <t>请输入帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiketest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiketest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safsdgffd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiketest@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +85,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -84,29 +117,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,21 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,44 +464,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -460,12 +532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
